--- a/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 1994.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 1994.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="59">
   <si>
-    <t>Turnover in retail trade (real/nominal): Germany, months,
+    <t>Turnover in retail trade: Germany, months, price types, 
 original and adjusted data, economic activities</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:40:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:18:51</t>
   </si>
 </sst>
 </file>
@@ -6368,7 +6368,7 @@
         <v>97.8</v>
       </c>
       <c r="AE13" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="AF13" t="n" s="10">
         <v>97.1</v>
@@ -6380,7 +6380,7 @@
         <v>98.8</v>
       </c>
       <c r="AI13" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="AJ13" t="n" s="10">
         <v>97.2</v>
@@ -6428,19 +6428,19 @@
         <v>95.3</v>
       </c>
       <c r="AY13" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="AZ13" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="BA13" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="BB13" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="BC13" t="n" s="10">
-        <v>95.2</v>
+        <v>96.0</v>
       </c>
       <c r="BD13" t="n" s="10">
         <v>95.3</v>
@@ -6452,82 +6452,82 @@
         <v>96.5</v>
       </c>
       <c r="BG13" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="BH13" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="BI13" t="n" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="BJ13" t="n" s="10">
         <v>96.6</v>
       </c>
-      <c r="BH13" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="BI13" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="BJ13" t="n" s="10">
-        <v>96.7</v>
-      </c>
       <c r="BK13" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="BL13" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="BM13" t="n" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="BN13" t="n" s="10">
+        <v>94.1</v>
+      </c>
+      <c r="BO13" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="BP13" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="BQ13" t="n" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="BR13" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="BS13" t="n" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="BT13" t="n" s="10">
         <v>96.5</v>
       </c>
-      <c r="BL13" t="n" s="10">
-        <v>95.6</v>
-      </c>
-      <c r="BM13" t="n" s="10">
+      <c r="BU13" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="BV13" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="BW13" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="BX13" t="n" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="BY13" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="BZ13" t="n" s="10">
         <v>98.1</v>
       </c>
-      <c r="BN13" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="BO13" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="BP13" t="n" s="10">
+      <c r="CA13" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="CB13" t="n" s="10">
         <v>96.3</v>
       </c>
-      <c r="BQ13" t="n" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="BR13" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="BS13" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="BT13" t="n" s="10">
-        <v>96.6</v>
-      </c>
-      <c r="BU13" t="n" s="10">
-        <v>96.0</v>
-      </c>
-      <c r="BV13" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="BW13" t="n" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="BX13" t="n" s="10">
-        <v>98.1</v>
-      </c>
-      <c r="BY13" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="BZ13" t="n" s="10">
-        <v>98.2</v>
-      </c>
-      <c r="CA13" t="n" s="10">
-        <v>97.4</v>
-      </c>
-      <c r="CB13" t="n" s="10">
-        <v>96.4</v>
-      </c>
       <c r="CC13" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="CD13" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CE13" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="CF13" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="CG13" t="n" s="10">
         <v>96.3</v>
@@ -6688,7 +6688,7 @@
         <v>97.1</v>
       </c>
       <c r="D14" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="E14" t="n" s="10">
         <v>97.0</v>
@@ -6814,7 +6814,7 @@
         <v>95.7</v>
       </c>
       <c r="AT14" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="AU14" t="n" s="10">
         <v>95.5</v>
@@ -6841,7 +6841,7 @@
         <v>95.8</v>
       </c>
       <c r="BC14" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="BD14" t="n" s="10">
         <v>96.0</v>
@@ -6856,49 +6856,49 @@
         <v>96.2</v>
       </c>
       <c r="BH14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BI14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BJ14" t="n" s="10">
-        <v>96.4</v>
+        <v>96.2</v>
       </c>
       <c r="BK14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="BL14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.0</v>
       </c>
       <c r="BM14" t="n" s="10">
-        <v>96.2</v>
+        <v>95.9</v>
       </c>
       <c r="BN14" t="n" s="10">
-        <v>96.1</v>
+        <v>95.7</v>
       </c>
       <c r="BO14" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="BP14" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="BQ14" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="BR14" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="BS14" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="BT14" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="BU14" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="BV14" t="n" s="10">
         <v>96.0</v>
-      </c>
-      <c r="BP14" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="BQ14" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="BR14" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="BS14" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="BT14" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="BU14" t="n" s="10">
-        <v>96.0</v>
-      </c>
-      <c r="BV14" t="n" s="10">
-        <v>96.1</v>
       </c>
       <c r="BW14" t="n" s="10">
         <v>96.2</v>
@@ -6907,13 +6907,13 @@
         <v>96.4</v>
       </c>
       <c r="BY14" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="BZ14" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="CA14" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="CB14" t="n" s="10">
         <v>96.9</v>
@@ -6931,7 +6931,7 @@
         <v>97.1</v>
       </c>
       <c r="CG14" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="CH14" t="n" s="10">
         <v>97.2</v>
@@ -8325,7 +8325,7 @@
         <v>84.5</v>
       </c>
       <c r="N18" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="O18" t="n" s="10">
         <v>84.3</v>
@@ -8661,7 +8661,7 @@
         <v>86.8</v>
       </c>
       <c r="DV18" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DW18" t="n" s="10">
         <v>85.5</v>
@@ -8915,10 +8915,10 @@
         <v>86.5</v>
       </c>
       <c r="BY19" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="BZ19" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CA19" t="n" s="10">
         <v>87.1</v>
@@ -9032,7 +9032,7 @@
         <v>85.8</v>
       </c>
       <c r="DL19" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DM19" t="n" s="10">
         <v>85.8</v>
@@ -10305,7 +10305,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="D24" t="n" s="10">
         <v>99.2</v>
@@ -10320,7 +10320,7 @@
         <v>96.8</v>
       </c>
       <c r="H24" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="I24" t="n" s="10">
         <v>98.4</v>
@@ -10332,28 +10332,28 @@
         <v>97.8</v>
       </c>
       <c r="L24" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="M24" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="N24" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="O24" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="P24" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="Q24" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="R24" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="S24" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="T24" t="n" s="10">
         <v>101.6</v>
@@ -10362,7 +10362,7 @@
         <v>99.5</v>
       </c>
       <c r="V24" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="W24" t="n" s="10">
         <v>101.2</v>
@@ -10371,16 +10371,16 @@
         <v>98.3</v>
       </c>
       <c r="Y24" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="Z24" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="AA24" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="AB24" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC24" t="n" s="10">
         <v>98.3</v>
@@ -10389,13 +10389,13 @@
         <v>99.0</v>
       </c>
       <c r="AE24" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AF24" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="AG24" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="AH24" t="n" s="10">
         <v>99.5</v>
@@ -10419,16 +10419,16 @@
         <v>96.1</v>
       </c>
       <c r="AO24" t="n" s="10">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="AP24" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="AQ24" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="AR24" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="AS24" t="n" s="10">
         <v>96.0</v>
@@ -10443,7 +10443,7 @@
         <v>97.3</v>
       </c>
       <c r="AW24" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="AX24" t="n" s="10">
         <v>95.8</v>
@@ -10458,16 +10458,16 @@
         <v>93.2</v>
       </c>
       <c r="BB24" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="BC24" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="BD24" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="BE24" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="BF24" t="n" s="10">
         <v>96.7</v>
@@ -10476,7 +10476,7 @@
         <v>97.1</v>
       </c>
       <c r="BH24" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="BI24" t="n" s="10">
         <v>98.0</v>
@@ -10494,13 +10494,13 @@
         <v>100.8</v>
       </c>
       <c r="BN24" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="BO24" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="BP24" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="BQ24" t="n" s="10">
         <v>100.2</v>
@@ -10518,13 +10518,13 @@
         <v>99.5</v>
       </c>
       <c r="BV24" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="BW24" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="BX24" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="BY24" t="n" s="10">
         <v>98.9</v>
@@ -10533,7 +10533,7 @@
         <v>100.6</v>
       </c>
       <c r="CA24" t="n" s="10">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="CB24" t="n" s="10">
         <v>99.5</v>
@@ -10554,7 +10554,7 @@
         <v>99.3</v>
       </c>
       <c r="CH24" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="CI24" t="n" s="10">
         <v>101.9</v>
@@ -10581,10 +10581,10 @@
         <v>101.4</v>
       </c>
       <c r="CQ24" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="CR24" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="CS24" t="n" s="10">
         <v>101.9</v>
@@ -10593,19 +10593,19 @@
         <v>101.4</v>
       </c>
       <c r="CU24" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="CV24" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="CW24" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="CX24" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="CY24" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CZ24" t="n" s="10">
         <v>101.2</v>
@@ -10617,7 +10617,7 @@
         <v>102.6</v>
       </c>
       <c r="DC24" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="DD24" t="n" s="10">
         <v>102.4</v>
@@ -10644,7 +10644,7 @@
         <v>104.4</v>
       </c>
       <c r="DL24" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="DM24" t="n" s="10">
         <v>102.0</v>
@@ -10653,13 +10653,13 @@
         <v>102.7</v>
       </c>
       <c r="DO24" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="DP24" t="n" s="10">
         <v>104.0</v>
       </c>
       <c r="DQ24" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="DR24" t="n" s="10">
         <v>104.0</v>
@@ -10671,16 +10671,16 @@
         <v>104.4</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="DV24" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DW24" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="DX24" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="DY24" t="n" s="10">
         <v>106.7</v>
@@ -10695,10 +10695,10 @@
         <v>105.6</v>
       </c>
       <c r="EC24" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="ED24" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="25">
@@ -10709,7 +10709,7 @@
         <v>98.3</v>
       </c>
       <c r="D25" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="E25" t="n" s="10">
         <v>97.8</v>
@@ -10730,7 +10730,7 @@
         <v>97.3</v>
       </c>
       <c r="K25" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="L25" t="n" s="10">
         <v>97.8</v>
@@ -10766,10 +10766,10 @@
         <v>100.2</v>
       </c>
       <c r="W25" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="X25" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="Y25" t="n" s="10">
         <v>99.8</v>
@@ -10790,7 +10790,7 @@
         <v>99.0</v>
       </c>
       <c r="AE25" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="AF25" t="n" s="10">
         <v>98.9</v>
@@ -10799,13 +10799,13 @@
         <v>98.8</v>
       </c>
       <c r="AH25" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AI25" t="n" s="10">
         <v>98.6</v>
       </c>
       <c r="AJ25" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="AK25" t="n" s="10">
         <v>98.3</v>
@@ -10814,7 +10814,7 @@
         <v>98.0</v>
       </c>
       <c r="AM25" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AN25" t="n" s="10">
         <v>97.6</v>
@@ -10838,7 +10838,7 @@
         <v>96.3</v>
       </c>
       <c r="AU25" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="AV25" t="n" s="10">
         <v>96.1</v>
@@ -10850,7 +10850,7 @@
         <v>95.9</v>
       </c>
       <c r="AY25" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="AZ25" t="n" s="10">
         <v>95.9</v>
@@ -10898,7 +10898,7 @@
         <v>98.0</v>
       </c>
       <c r="BO25" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="BP25" t="n" s="10">
         <v>98.3</v>
@@ -10907,31 +10907,31 @@
         <v>98.4</v>
       </c>
       <c r="BR25" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="BS25" t="n" s="10">
         <v>98.7</v>
       </c>
       <c r="BT25" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="BU25" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BV25" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="BW25" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="BY25" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="BZ25" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="CA25" t="n" s="10">
         <v>100.0</v>
@@ -10952,7 +10952,7 @@
         <v>100.1</v>
       </c>
       <c r="CG25" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="CH25" t="n" s="10">
         <v>100.3</v>
@@ -10967,7 +10967,7 @@
         <v>100.8</v>
       </c>
       <c r="CL25" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CM25" t="n" s="10">
         <v>101.1</v>
@@ -10985,19 +10985,19 @@
         <v>101.0</v>
       </c>
       <c r="CR25" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CS25" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="CT25" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="CU25" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="CV25" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="CW25" t="n" s="10">
         <v>101.3</v>
@@ -11015,7 +11015,7 @@
         <v>101.8</v>
       </c>
       <c r="DB25" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="DC25" t="n" s="10">
         <v>101.9</v>
@@ -11045,13 +11045,13 @@
         <v>102.3</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="DM25" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="DO25" t="n" s="10">
         <v>103.0</v>
@@ -11096,7 +11096,7 @@
         <v>105.8</v>
       </c>
       <c r="EC25" t="n" s="10">
-        <v>106.0</v>
+        <v>106.1</v>
       </c>
       <c r="ED25" t="n" s="10">
         <v>106.3</v>
@@ -12313,13 +12313,13 @@
         <v>35</v>
       </c>
       <c r="C29" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="D29" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="E29" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="F29" t="n" s="10">
         <v>75.8</v>
@@ -12346,25 +12346,25 @@
         <v>77.9</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="O29" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="R29" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="S29" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="U29" t="n" s="10">
         <v>79.5</v>
@@ -12412,13 +12412,13 @@
         <v>77.9</v>
       </c>
       <c r="AJ29" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AK29" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="AL29" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="AM29" t="n" s="10">
         <v>79.7</v>
@@ -12427,13 +12427,13 @@
         <v>77.5</v>
       </c>
       <c r="AO29" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="AP29" t="n" s="10">
         <v>77.2</v>
       </c>
       <c r="AQ29" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="AR29" t="n" s="10">
         <v>78.3</v>
@@ -12445,7 +12445,7 @@
         <v>78.0</v>
       </c>
       <c r="AU29" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AV29" t="n" s="10">
         <v>79.2</v>
@@ -12484,7 +12484,7 @@
         <v>79.4</v>
       </c>
       <c r="BH29" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="BI29" t="n" s="10">
         <v>80.0</v>
@@ -12517,13 +12517,13 @@
         <v>78.9</v>
       </c>
       <c r="BS29" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="BT29" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BU29" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="BV29" t="n" s="10">
         <v>80.9</v>
@@ -12541,7 +12541,7 @@
         <v>81.0</v>
       </c>
       <c r="CA29" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="CB29" t="n" s="10">
         <v>80.1</v>
@@ -12652,7 +12652,7 @@
         <v>87.2</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DM29" t="n" s="10">
         <v>85.4</v>
@@ -12667,7 +12667,7 @@
         <v>87.5</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="DR29" t="n" s="10">
         <v>87.3</v>
@@ -12688,7 +12688,7 @@
         <v>86.0</v>
       </c>
       <c r="DX29" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="DY29" t="n" s="10">
         <v>89.8</v>
@@ -12706,7 +12706,7 @@
         <v>89.5</v>
       </c>
       <c r="ED29" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="30">
@@ -12714,7 +12714,7 @@
         <v>36</v>
       </c>
       <c r="C30" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="D30" t="n" s="10">
         <v>77.4</v>
@@ -12753,13 +12753,13 @@
         <v>78.9</v>
       </c>
       <c r="P30" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="Q30" t="n" s="10">
         <v>79.5</v>
       </c>
       <c r="R30" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="S30" t="n" s="10">
         <v>79.9</v>
@@ -12822,7 +12822,7 @@
         <v>78.9</v>
       </c>
       <c r="AM30" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="AN30" t="n" s="10">
         <v>78.7</v>
@@ -12831,7 +12831,7 @@
         <v>78.5</v>
       </c>
       <c r="AP30" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="AQ30" t="n" s="10">
         <v>78.4</v>
@@ -12843,13 +12843,13 @@
         <v>78.2</v>
       </c>
       <c r="AT30" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="AU30" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="AV30" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="AW30" t="n" s="10">
         <v>78.1</v>
@@ -12867,7 +12867,7 @@
         <v>78.4</v>
       </c>
       <c r="BB30" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="BC30" t="n" s="10">
         <v>78.7</v>
@@ -12936,7 +12936,7 @@
         <v>80.4</v>
       </c>
       <c r="BY30" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="BZ30" t="n" s="10">
         <v>80.5</v>
@@ -13053,7 +13053,7 @@
         <v>85.5</v>
       </c>
       <c r="DL30" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DM30" t="n" s="10">
         <v>85.9</v>
@@ -13098,13 +13098,13 @@
         <v>88.5</v>
       </c>
       <c r="EA30" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="EB30" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="EC30" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="ED30" t="n" s="10">
         <v>89.5</v>
@@ -14353,7 +14353,7 @@
         <v>171.1</v>
       </c>
       <c r="L35" t="n" s="10">
-        <v>174.2</v>
+        <v>174.1</v>
       </c>
       <c r="M35" t="n" s="10">
         <v>174.9</v>
@@ -14395,7 +14395,7 @@
         <v>180.3</v>
       </c>
       <c r="Z35" t="n" s="10">
-        <v>185.8</v>
+        <v>185.7</v>
       </c>
       <c r="AA35" t="n" s="10">
         <v>177.9</v>
@@ -14425,7 +14425,7 @@
         <v>173.5</v>
       </c>
       <c r="AJ35" t="n" s="10">
-        <v>180.2</v>
+        <v>180.3</v>
       </c>
       <c r="AK35" t="n" s="10">
         <v>176.8</v>
@@ -14446,7 +14446,7 @@
         <v>171.3</v>
       </c>
       <c r="AQ35" t="n" s="10">
-        <v>173.4</v>
+        <v>173.3</v>
       </c>
       <c r="AR35" t="n" s="10">
         <v>170.4</v>
@@ -14461,7 +14461,7 @@
         <v>170.5</v>
       </c>
       <c r="AV35" t="n" s="10">
-        <v>169.5</v>
+        <v>169.6</v>
       </c>
       <c r="AW35" t="n" s="10">
         <v>166.0</v>
@@ -14506,7 +14506,7 @@
         <v>169.9</v>
       </c>
       <c r="BK35" t="n" s="10">
-        <v>156.6</v>
+        <v>156.5</v>
       </c>
       <c r="BL35" t="n" s="10">
         <v>157.8</v>
@@ -14551,7 +14551,7 @@
         <v>153.5</v>
       </c>
       <c r="BZ35" t="n" s="10">
-        <v>155.0</v>
+        <v>154.9</v>
       </c>
       <c r="CA35" t="n" s="10">
         <v>156.7</v>
@@ -14671,7 +14671,7 @@
         <v>134.3</v>
       </c>
       <c r="DN35" t="n" s="10">
-        <v>134.5</v>
+        <v>134.4</v>
       </c>
       <c r="DO35" t="n" s="10">
         <v>133.3</v>
@@ -14913,7 +14913,7 @@
         <v>159.7</v>
       </c>
       <c r="BM36" t="n" s="10">
-        <v>158.5</v>
+        <v>158.6</v>
       </c>
       <c r="BN36" t="n" s="10">
         <v>157.3</v>
@@ -16334,22 +16334,22 @@
         <v>35</v>
       </c>
       <c r="C40" t="n" s="10">
-        <v>115.1</v>
+        <v>115.0</v>
       </c>
       <c r="D40" t="n" s="10">
         <v>116.3</v>
       </c>
       <c r="E40" t="n" s="10">
-        <v>118.9</v>
+        <v>119.0</v>
       </c>
       <c r="F40" t="n" s="10">
         <v>114.2</v>
       </c>
       <c r="G40" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="H40" t="n" s="10">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="I40" t="n" s="10">
         <v>118.4</v>
@@ -16361,7 +16361,7 @@
         <v>119.9</v>
       </c>
       <c r="L40" t="n" s="10">
-        <v>122.6</v>
+        <v>122.5</v>
       </c>
       <c r="M40" t="n" s="10">
         <v>123.1</v>
@@ -16373,13 +16373,13 @@
         <v>125.1</v>
       </c>
       <c r="P40" t="n" s="10">
-        <v>124.9</v>
+        <v>124.8</v>
       </c>
       <c r="Q40" t="n" s="10">
         <v>126.1</v>
       </c>
       <c r="R40" t="n" s="10">
-        <v>127.1</v>
+        <v>127.0</v>
       </c>
       <c r="S40" t="n" s="10">
         <v>128.4</v>
@@ -16409,7 +16409,7 @@
         <v>126.1</v>
       </c>
       <c r="AB40" t="n" s="10">
-        <v>128.6</v>
+        <v>128.7</v>
       </c>
       <c r="AC40" t="n" s="10">
         <v>126.8</v>
@@ -16424,7 +16424,7 @@
         <v>126.4</v>
       </c>
       <c r="AG40" t="n" s="10">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="AH40" t="n" s="10">
         <v>128.6</v>
@@ -16448,10 +16448,10 @@
         <v>124.5</v>
       </c>
       <c r="AO40" t="n" s="10">
-        <v>126.3</v>
+        <v>126.2</v>
       </c>
       <c r="AP40" t="n" s="10">
-        <v>123.9</v>
+        <v>124.0</v>
       </c>
       <c r="AQ40" t="n" s="10">
         <v>126.0</v>
@@ -16472,7 +16472,7 @@
         <v>123.5</v>
       </c>
       <c r="AW40" t="n" s="10">
-        <v>121.8</v>
+        <v>121.7</v>
       </c>
       <c r="AX40" t="n" s="10">
         <v>124.1</v>
@@ -16493,7 +16493,7 @@
         <v>123.1</v>
       </c>
       <c r="BD40" t="n" s="10">
-        <v>123.2</v>
+        <v>123.1</v>
       </c>
       <c r="BE40" t="n" s="10">
         <v>122.9</v>
@@ -16508,7 +16508,7 @@
         <v>122.2</v>
       </c>
       <c r="BI40" t="n" s="10">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="BJ40" t="n" s="10">
         <v>124.9</v>
@@ -16544,7 +16544,7 @@
         <v>110.7</v>
       </c>
       <c r="BU40" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="BV40" t="n" s="10">
         <v>110.9</v>
@@ -16559,13 +16559,13 @@
         <v>111.8</v>
       </c>
       <c r="BZ40" t="n" s="10">
-        <v>113.1</v>
+        <v>113.0</v>
       </c>
       <c r="CA40" t="n" s="10">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="CB40" t="n" s="10">
-        <v>112.9</v>
+        <v>112.8</v>
       </c>
       <c r="CC40" t="n" s="10">
         <v>110.0</v>
@@ -16607,7 +16607,7 @@
         <v>110.1</v>
       </c>
       <c r="CP40" t="n" s="10">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="CQ40" t="n" s="10">
         <v>107.5</v>
@@ -16685,13 +16685,13 @@
         <v>104.7</v>
       </c>
       <c r="DP40" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="DQ40" t="n" s="10">
         <v>103.8</v>
       </c>
       <c r="DR40" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="DS40" t="n" s="10">
         <v>104.8</v>
@@ -16718,7 +16718,7 @@
         <v>102.4</v>
       </c>
       <c r="EA40" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="EB40" t="n" s="10">
         <v>102.8</v>
@@ -16765,7 +16765,7 @@
         <v>121.4</v>
       </c>
       <c r="M41" t="n" s="10">
-        <v>122.4</v>
+        <v>122.5</v>
       </c>
       <c r="N41" t="n" s="10">
         <v>123.4</v>
@@ -16870,7 +16870,7 @@
         <v>123.9</v>
       </c>
       <c r="AV41" t="n" s="10">
-        <v>123.8</v>
+        <v>123.7</v>
       </c>
       <c r="AW41" t="n" s="10">
         <v>123.5</v>
@@ -16885,7 +16885,7 @@
         <v>123.2</v>
       </c>
       <c r="BA41" t="n" s="10">
-        <v>123.2</v>
+        <v>123.1</v>
       </c>
       <c r="BB41" t="n" s="10">
         <v>123.1</v>
@@ -16930,7 +16930,7 @@
         <v>114.2</v>
       </c>
       <c r="BP41" t="n" s="10">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="BQ41" t="n" s="10">
         <v>112.8</v>
@@ -16981,10 +16981,10 @@
         <v>111.8</v>
       </c>
       <c r="CG41" t="n" s="10">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="CH41" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="CI41" t="n" s="10">
         <v>111.2</v>
@@ -17113,10 +17113,10 @@
         <v>103.2</v>
       </c>
       <c r="DY41" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="DZ41" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="EA41" t="n" s="10">
         <v>102.7</v>
@@ -17128,7 +17128,7 @@
         <v>102.6</v>
       </c>
       <c r="ED41" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="42" ht="33.75" customHeight="true">
@@ -18347,7 +18347,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="n" s="10">
-        <v>168.6</v>
+        <v>168.7</v>
       </c>
       <c r="D46" t="n" s="10">
         <v>172.1</v>
@@ -18485,7 +18485,7 @@
         <v>176.0</v>
       </c>
       <c r="AW46" t="n" s="10">
-        <v>174.0</v>
+        <v>174.1</v>
       </c>
       <c r="AX46" t="n" s="10">
         <v>173.5</v>
@@ -18680,7 +18680,7 @@
         <v>124.8</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="DK46" t="n" s="10">
         <v>128.6</v>
@@ -20370,7 +20370,7 @@
         <v>103.4</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>105.7</v>
@@ -20388,7 +20388,7 @@
         <v>106.1</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="O51" t="n" s="10">
         <v>105.2</v>
@@ -20409,7 +20409,7 @@
         <v>111.0</v>
       </c>
       <c r="U51" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="V51" t="n" s="10">
         <v>110.3</v>
@@ -20442,7 +20442,7 @@
         <v>114.0</v>
       </c>
       <c r="AF51" t="n" s="10">
-        <v>114.2</v>
+        <v>114.1</v>
       </c>
       <c r="AG51" t="n" s="10">
         <v>113.6</v>
@@ -20460,7 +20460,7 @@
         <v>115.4</v>
       </c>
       <c r="AL51" t="n" s="10">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="AM51" t="n" s="10">
         <v>112.4</v>
@@ -20475,7 +20475,7 @@
         <v>112.4</v>
       </c>
       <c r="AQ51" t="n" s="10">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="AR51" t="n" s="10">
         <v>111.0</v>
@@ -20484,7 +20484,7 @@
         <v>112.0</v>
       </c>
       <c r="AT51" t="n" s="10">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="AU51" t="n" s="10">
         <v>112.0</v>
@@ -20511,7 +20511,7 @@
         <v>106.9</v>
       </c>
       <c r="BC51" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="BD51" t="n" s="10">
         <v>107.5</v>
@@ -20550,13 +20550,13 @@
         <v>94.9</v>
       </c>
       <c r="BP51" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="BQ51" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="BR51" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="BS51" t="n" s="10">
         <v>95.9</v>
@@ -20577,7 +20577,7 @@
         <v>100.5</v>
       </c>
       <c r="BY51" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="BZ51" t="n" s="10">
         <v>102.0</v>
@@ -20619,7 +20619,7 @@
         <v>101.3</v>
       </c>
       <c r="CM51" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="CN51" t="n" s="10">
         <v>101.6</v>
@@ -20637,10 +20637,10 @@
         <v>98.1</v>
       </c>
       <c r="CS51" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="CT51" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="CU51" t="n" s="10">
         <v>92.0</v>
@@ -20649,7 +20649,7 @@
         <v>91.2</v>
       </c>
       <c r="CW51" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="CX51" t="n" s="10">
         <v>92.7</v>
@@ -20709,13 +20709,13 @@
         <v>94.9</v>
       </c>
       <c r="DQ51" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DR51" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="DS51" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="DT51" t="n" s="10">
         <v>100.2</v>
@@ -20733,7 +20733,7 @@
         <v>99.6</v>
       </c>
       <c r="DY51" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="DZ51" t="n" s="10">
         <v>100.8</v>
@@ -20745,10 +20745,10 @@
         <v>101.2</v>
       </c>
       <c r="EC51" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="ED51" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="52">
@@ -20792,7 +20792,7 @@
         <v>106.5</v>
       </c>
       <c r="O52" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="P52" t="n" s="10">
         <v>107.2</v>
@@ -20855,7 +20855,7 @@
         <v>114.6</v>
       </c>
       <c r="AJ52" t="n" s="10">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="AK52" t="n" s="10">
         <v>114.0</v>
@@ -20906,7 +20906,7 @@
         <v>109.0</v>
       </c>
       <c r="BA52" t="n" s="10">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="BB52" t="n" s="10">
         <v>107.6</v>
@@ -20936,7 +20936,7 @@
         <v>99.4</v>
       </c>
       <c r="BK52" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="BL52" t="n" s="10">
         <v>97.2</v>
@@ -21038,13 +21038,13 @@
         <v>96.9</v>
       </c>
       <c r="CS52" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="CT52" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="CU52" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="CV52" t="n" s="10">
         <v>93.3</v>
@@ -21104,7 +21104,7 @@
         <v>95.5</v>
       </c>
       <c r="DO52" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="DP52" t="n" s="10">
         <v>96.1</v>
@@ -21128,7 +21128,7 @@
         <v>99.5</v>
       </c>
       <c r="DW52" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="DX52" t="n" s="10">
         <v>100.3</v>
@@ -21137,13 +21137,13 @@
         <v>100.4</v>
       </c>
       <c r="DZ52" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="EA52" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="EB52" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="EC52" t="n" s="10">
         <v>100.0</v>
@@ -22368,82 +22368,82 @@
         <v>35</v>
       </c>
       <c r="C57" t="n" s="10">
-        <v>24.0</v>
+        <v>23.9</v>
       </c>
       <c r="D57" t="n" s="10">
         <v>24.1</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>23.9</v>
+        <v>24.0</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="J57" t="n" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="K57" t="n" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="L57" t="n" s="10">
         <v>24.5</v>
       </c>
-      <c r="K57" t="n" s="10">
-        <v>24.2</v>
-      </c>
-      <c r="L57" t="n" s="10">
-        <v>24.6</v>
-      </c>
       <c r="M57" t="n" s="10">
-        <v>25.1</v>
+        <v>25.0</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="O57" t="n" s="10">
         <v>23.8</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="S57" t="n" s="10">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="T57" t="n" s="10">
         <v>24.0</v>
       </c>
       <c r="U57" t="n" s="10">
-        <v>24.1</v>
+        <v>24.0</v>
       </c>
       <c r="V57" t="n" s="10">
         <v>23.6</v>
       </c>
       <c r="W57" t="n" s="10">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="X57" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="Y57" t="n" s="10">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AA57" t="n" s="10">
         <v>24.4</v>
       </c>
       <c r="AB57" t="n" s="10">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AC57" t="n" s="10">
         <v>24.5</v>
@@ -22455,25 +22455,25 @@
         <v>24.6</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="AG57" t="n" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
         <v>24.0</v>
       </c>
-      <c r="AH57" t="n" s="10">
-        <v>24.5</v>
-      </c>
-      <c r="AI57" t="n" s="10">
-        <v>24.1</v>
-      </c>
       <c r="AJ57" t="n" s="10">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AK57" t="n" s="10">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AL57" t="n" s="10">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AM57" t="n" s="10">
         <v>24.0</v>
@@ -22482,34 +22482,34 @@
         <v>23.9</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="AQ57" t="n" s="10">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="AR57" t="n" s="10">
-        <v>23.8</v>
+        <v>24.0</v>
       </c>
       <c r="AS57" t="n" s="10">
         <v>24.6</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AU57" t="n" s="10">
         <v>24.8</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>25.0</v>
+        <v>24.9</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="AY57" t="n" s="10">
         <v>25.8</v>
@@ -22518,52 +22518,52 @@
         <v>25.8</v>
       </c>
       <c r="BA57" t="n" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="BB57" t="n" s="10">
         <v>26.1</v>
       </c>
-      <c r="BB57" t="n" s="10">
+      <c r="BC57" t="n" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="BD57" t="n" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="BE57" t="n" s="10">
         <v>26.2</v>
-      </c>
-      <c r="BC57" t="n" s="10">
-        <v>26.0</v>
-      </c>
-      <c r="BD57" t="n" s="10">
-        <v>26.8</v>
-      </c>
-      <c r="BE57" t="n" s="10">
-        <v>26.1</v>
       </c>
       <c r="BF57" t="n" s="10">
         <v>26.2</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="BH57" t="n" s="10">
         <v>26.1</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="BJ57" t="n" s="10">
         <v>26.4</v>
       </c>
       <c r="BK57" t="n" s="10">
-        <v>27.0</v>
+        <v>26.9</v>
       </c>
       <c r="BL57" t="n" s="10">
         <v>26.9</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="BO57" t="n" s="10">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="BP57" t="n" s="10">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="BQ57" t="n" s="10">
         <v>28.4</v>
@@ -22572,37 +22572,37 @@
         <v>29.2</v>
       </c>
       <c r="BS57" t="n" s="10">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="BT57" t="n" s="10">
         <v>30.6</v>
       </c>
       <c r="BU57" t="n" s="10">
-        <v>29.0</v>
+        <v>29.1</v>
       </c>
       <c r="BV57" t="n" s="10">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="BW57" t="n" s="10">
         <v>30.3</v>
       </c>
       <c r="BX57" t="n" s="10">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="CA57" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="CB57" t="n" s="10">
         <v>32.8</v>
       </c>
-      <c r="CB57" t="n" s="10">
-        <v>32.9</v>
-      </c>
       <c r="CC57" t="n" s="10">
-        <v>34.0</v>
+        <v>33.9</v>
       </c>
       <c r="CD57" t="n" s="10">
         <v>33.2</v>
@@ -22617,34 +22617,34 @@
         <v>33.8</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="CI57" t="n" s="10">
         <v>34.4</v>
       </c>
       <c r="CJ57" t="n" s="10">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="CK57" t="n" s="10">
         <v>34.6</v>
       </c>
       <c r="CL57" t="n" s="10">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="CM57" t="n" s="10">
         <v>32.8</v>
       </c>
       <c r="CN57" t="n" s="10">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="CO57" t="n" s="10">
         <v>32.9</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>34.1</v>
+        <v>34.0</v>
       </c>
       <c r="CR57" t="n" s="10">
         <v>34.0</v>
@@ -22653,7 +22653,7 @@
         <v>33.6</v>
       </c>
       <c r="CT57" t="n" s="10">
-        <v>34.0</v>
+        <v>33.9</v>
       </c>
       <c r="CU57" t="n" s="10">
         <v>31.6</v>
@@ -22662,16 +22662,16 @@
         <v>30.8</v>
       </c>
       <c r="CW57" t="n" s="10">
-        <v>31.2</v>
+        <v>31.0</v>
       </c>
       <c r="CX57" t="n" s="10">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>32.0</v>
+        <v>31.8</v>
       </c>
       <c r="CZ57" t="n" s="10">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="DA57" t="n" s="10">
         <v>30.8</v>
@@ -22698,22 +22698,22 @@
         <v>31.6</v>
       </c>
       <c r="DI57" t="n" s="10">
+        <v>30.9</v>
+      </c>
+      <c r="DJ57" t="n" s="10">
+        <v>31.4</v>
+      </c>
+      <c r="DK57" t="n" s="10">
+        <v>30.9</v>
+      </c>
+      <c r="DL57" t="n" s="10">
         <v>31.0</v>
       </c>
-      <c r="DJ57" t="n" s="10">
+      <c r="DM57" t="n" s="10">
+        <v>31.4</v>
+      </c>
+      <c r="DN57" t="n" s="10">
         <v>31.5</v>
-      </c>
-      <c r="DK57" t="n" s="10">
-        <v>30.8</v>
-      </c>
-      <c r="DL57" t="n" s="10">
-        <v>31.2</v>
-      </c>
-      <c r="DM57" t="n" s="10">
-        <v>31.3</v>
-      </c>
-      <c r="DN57" t="n" s="10">
-        <v>31.7</v>
       </c>
       <c r="DO57" t="n" s="10">
         <v>31.8</v>
@@ -22722,28 +22722,28 @@
         <v>31.7</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="DR57" t="n" s="10">
         <v>31.0</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="DT57" t="n" s="10">
         <v>33.6</v>
       </c>
       <c r="DU57" t="n" s="10">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="DV57" t="n" s="10">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="DW57" t="n" s="10">
         <v>35.2</v>
       </c>
       <c r="DX57" t="n" s="10">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="DY57" t="n" s="10">
         <v>35.3</v>
@@ -22758,10 +22758,10 @@
         <v>36.8</v>
       </c>
       <c r="EC57" t="n" s="10">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="ED57" t="n" s="10">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="58">
@@ -22799,7 +22799,7 @@
         <v>24.4</v>
       </c>
       <c r="M58" t="n" s="10">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N58" t="n" s="10">
         <v>24.3</v>
@@ -22832,13 +22832,13 @@
         <v>24.0</v>
       </c>
       <c r="X58" t="n" s="10">
-        <v>24.1</v>
+        <v>24.0</v>
       </c>
       <c r="Y58" t="n" s="10">
         <v>24.2</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="AA58" t="n" s="10">
         <v>24.3</v>
@@ -22865,7 +22865,7 @@
         <v>24.2</v>
       </c>
       <c r="AI58" t="n" s="10">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AJ58" t="n" s="10">
         <v>24.1</v>
@@ -22880,10 +22880,10 @@
         <v>24.1</v>
       </c>
       <c r="AN58" t="n" s="10">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AO58" t="n" s="10">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AP58" t="n" s="10">
         <v>24.2</v>
@@ -22898,7 +22898,7 @@
         <v>24.5</v>
       </c>
       <c r="AT58" t="n" s="10">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="AU58" t="n" s="10">
         <v>24.8</v>
@@ -22907,7 +22907,7 @@
         <v>25.0</v>
       </c>
       <c r="AW58" t="n" s="10">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="AX58" t="n" s="10">
         <v>25.3</v>
@@ -22934,7 +22934,7 @@
         <v>26.3</v>
       </c>
       <c r="BF58" t="n" s="10">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="BG58" t="n" s="10">
         <v>26.4</v>
@@ -22964,25 +22964,25 @@
         <v>27.6</v>
       </c>
       <c r="BP58" t="n" s="10">
-        <v>27.9</v>
+        <v>28.0</v>
       </c>
       <c r="BQ58" t="n" s="10">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="BR58" t="n" s="10">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="BS58" t="n" s="10">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="BT58" t="n" s="10">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>29.9</v>
+        <v>30.0</v>
       </c>
       <c r="BV58" t="n" s="10">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="BW58" t="n" s="10">
         <v>30.8</v>
@@ -22991,16 +22991,16 @@
         <v>31.2</v>
       </c>
       <c r="BY58" t="n" s="10">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="BZ58" t="n" s="10">
         <v>32.1</v>
       </c>
       <c r="CA58" t="n" s="10">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="CC58" t="n" s="10">
         <v>33.2</v>
@@ -23012,7 +23012,7 @@
         <v>33.7</v>
       </c>
       <c r="CF58" t="n" s="10">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="CG58" t="n" s="10">
         <v>33.9</v>
@@ -23030,22 +23030,22 @@
         <v>34.1</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>34.1</v>
+        <v>34.0</v>
       </c>
       <c r="CM58" t="n" s="10">
         <v>34.0</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>34.0</v>
+        <v>33.9</v>
       </c>
       <c r="CO58" t="n" s="10">
         <v>33.8</v>
       </c>
       <c r="CP58" t="n" s="10">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="CQ58" t="n" s="10">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="CR58" t="n" s="10">
         <v>33.2</v>
@@ -23066,31 +23066,31 @@
         <v>31.6</v>
       </c>
       <c r="CX58" t="n" s="10">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="CY58" t="n" s="10">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="CZ58" t="n" s="10">
-        <v>31.0</v>
+        <v>30.9</v>
       </c>
       <c r="DA58" t="n" s="10">
         <v>30.8</v>
       </c>
       <c r="DB58" t="n" s="10">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="DC58" t="n" s="10">
         <v>30.7</v>
       </c>
       <c r="DD58" t="n" s="10">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="DE58" t="n" s="10">
         <v>30.9</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>31.0</v>
+        <v>30.9</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>31.0</v>
@@ -23099,25 +23099,25 @@
         <v>31.1</v>
       </c>
       <c r="DI58" t="n" s="10">
-        <v>31.1</v>
+        <v>31.0</v>
       </c>
       <c r="DJ58" t="n" s="10">
-        <v>31.1</v>
+        <v>31.0</v>
       </c>
       <c r="DK58" t="n" s="10">
         <v>31.1</v>
       </c>
       <c r="DL58" t="n" s="10">
+        <v>31.1</v>
+      </c>
+      <c r="DM58" t="n" s="10">
         <v>31.2</v>
       </c>
-      <c r="DM58" t="n" s="10">
-        <v>31.3</v>
-      </c>
       <c r="DN58" t="n" s="10">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="DO58" t="n" s="10">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="DP58" t="n" s="10">
         <v>31.9</v>
@@ -23144,22 +23144,22 @@
         <v>34.4</v>
       </c>
       <c r="DX58" t="n" s="10">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="DY58" t="n" s="10">
         <v>35.3</v>
       </c>
       <c r="DZ58" t="n" s="10">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="EA58" t="n" s="10">
         <v>36.2</v>
       </c>
       <c r="EB58" t="n" s="10">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="EC58" t="n" s="10">
-        <v>37.0</v>
+        <v>37.1</v>
       </c>
       <c r="ED58" t="n" s="10">
         <v>37.5</v>
@@ -24376,130 +24376,130 @@
         <v>35</v>
       </c>
       <c r="C62" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="D62" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="E62" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="F62" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="G62" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="H62" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="I62" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="J62" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="K62" t="n" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="L62" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="M62" t="n" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="N62" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="O62" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P62" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="Q62" t="n" s="10">
         <v>94.5</v>
       </c>
-      <c r="D62" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="E62" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="F62" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="G62" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="H62" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="I62" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="J62" t="n" s="10">
-        <v>97.6</v>
-      </c>
-      <c r="K62" t="n" s="10">
-        <v>97.3</v>
-      </c>
-      <c r="L62" t="n" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="M62" t="n" s="10">
-        <v>98.7</v>
-      </c>
-      <c r="N62" t="n" s="10">
-        <v>113.8</v>
-      </c>
-      <c r="O62" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="P62" t="n" s="10">
+      <c r="R62" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="S62" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="T62" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="U62" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="V62" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="W62" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="X62" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="Y62" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="Z62" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="AA62" t="n" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="AB62" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="AC62" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="AD62" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="AE62" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="AF62" t="n" s="10">
         <v>93.2</v>
       </c>
-      <c r="Q62" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="R62" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="S62" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="T62" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="U62" t="n" s="10">
-        <v>93.8</v>
-      </c>
-      <c r="V62" t="n" s="10">
+      <c r="AG62" t="n" s="10">
+        <v>93.4</v>
+      </c>
+      <c r="AH62" t="n" s="10">
+        <v>94.1</v>
+      </c>
+      <c r="AI62" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="AJ62" t="n" s="10">
+        <v>91.8</v>
+      </c>
+      <c r="AK62" t="n" s="10">
+        <v>92.8</v>
+      </c>
+      <c r="AL62" t="n" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="AM62" t="n" s="10">
+        <v>91.8</v>
+      </c>
+      <c r="AN62" t="n" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="AO62" t="n" s="10">
+        <v>90.6</v>
+      </c>
+      <c r="AP62" t="n" s="10">
         <v>93.2</v>
-      </c>
-      <c r="W62" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="X62" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="Y62" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="Z62" t="n" s="10">
-        <v>101.6</v>
-      </c>
-      <c r="AA62" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="AB62" t="n" s="10">
-        <v>96.4</v>
-      </c>
-      <c r="AC62" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="AD62" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="AE62" t="n" s="10">
-        <v>95.3</v>
-      </c>
-      <c r="AF62" t="n" s="10">
-        <v>92.9</v>
-      </c>
-      <c r="AG62" t="n" s="10">
-        <v>93.1</v>
-      </c>
-      <c r="AH62" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="AI62" t="n" s="10">
-        <v>91.9</v>
-      </c>
-      <c r="AJ62" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="AK62" t="n" s="10">
-        <v>92.7</v>
-      </c>
-      <c r="AL62" t="n" s="10">
-        <v>92.1</v>
-      </c>
-      <c r="AM62" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="AN62" t="n" s="10">
-        <v>90.1</v>
-      </c>
-      <c r="AO62" t="n" s="10">
-        <v>90.5</v>
-      </c>
-      <c r="AP62" t="n" s="10">
-        <v>93.1</v>
       </c>
       <c r="AQ62" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="AR62" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="AS62" t="n" s="10">
         <v>92.1</v>
@@ -24511,13 +24511,13 @@
         <v>92.4</v>
       </c>
       <c r="AV62" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="AW62" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="AX62" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="AY62" t="n" s="10">
         <v>94.7</v>
@@ -24538,7 +24538,7 @@
         <v>96.2</v>
       </c>
       <c r="BE62" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="BF62" t="n" s="10">
         <v>94.2</v>
@@ -24571,7 +24571,7 @@
         <v>96.0</v>
       </c>
       <c r="BP62" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="BQ62" t="n" s="10">
         <v>99.0</v>
@@ -24589,28 +24589,28 @@
         <v>100.4</v>
       </c>
       <c r="BV62" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="BW62" t="n" s="10">
         <v>102.7</v>
       </c>
       <c r="BX62" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="BY62" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="BZ62" t="n" s="10">
         <v>105.8</v>
       </c>
       <c r="CA62" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="CB62" t="n" s="10">
         <v>104.8</v>
       </c>
       <c r="CC62" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="CD62" t="n" s="10">
         <v>105.0</v>
@@ -24625,13 +24625,13 @@
         <v>104.1</v>
       </c>
       <c r="CH62" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="CI62" t="n" s="10">
         <v>104.3</v>
       </c>
       <c r="CJ62" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="CK62" t="n" s="10">
         <v>103.0</v>
@@ -24643,7 +24643,7 @@
         <v>97.1</v>
       </c>
       <c r="CN62" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="CO62" t="n" s="10">
         <v>95.7</v>
@@ -24673,10 +24673,10 @@
         <v>87.0</v>
       </c>
       <c r="CX62" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="CY62" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="CZ62" t="n" s="10">
         <v>84.2</v>
@@ -24715,13 +24715,13 @@
         <v>77.5</v>
       </c>
       <c r="DL62" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="DM62" t="n" s="10">
         <v>77.3</v>
       </c>
       <c r="DN62" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="DO62" t="n" s="10">
         <v>77.0</v>
@@ -24748,7 +24748,7 @@
         <v>79.4</v>
       </c>
       <c r="DW62" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="DX62" t="n" s="10">
         <v>81.4</v>
@@ -24760,7 +24760,7 @@
         <v>80.7</v>
       </c>
       <c r="EA62" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="EB62" t="n" s="10">
         <v>82.6</v>
@@ -24769,7 +24769,7 @@
         <v>81.8</v>
       </c>
       <c r="ED62" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
     </row>
     <row r="63">
@@ -24777,100 +24777,100 @@
         <v>36</v>
       </c>
       <c r="C63" t="n" s="10">
-        <v>96.3</v>
+        <v>96.9</v>
       </c>
       <c r="D63" t="n" s="10">
+        <v>97.1</v>
+      </c>
+      <c r="E63" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="F63" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="G63" t="n" s="10">
+        <v>97.8</v>
+      </c>
+      <c r="H63" t="n" s="10">
+        <v>97.8</v>
+      </c>
+      <c r="I63" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="J63" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="K63" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="L63" t="n" s="10">
+        <v>97.1</v>
+      </c>
+      <c r="M63" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="N63" t="n" s="10">
         <v>96.5</v>
       </c>
-      <c r="E63" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="F63" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="G63" t="n" s="10">
-        <v>97.1</v>
-      </c>
-      <c r="H63" t="n" s="10">
-        <v>97.2</v>
-      </c>
-      <c r="I63" t="n" s="10">
-        <v>97.3</v>
-      </c>
-      <c r="J63" t="n" s="10">
-        <v>97.1</v>
-      </c>
-      <c r="K63" t="n" s="10">
-        <v>96.8</v>
-      </c>
-      <c r="L63" t="n" s="10">
-        <v>96.5</v>
-      </c>
-      <c r="M63" t="n" s="10">
-        <v>96.2</v>
-      </c>
-      <c r="N63" t="n" s="10">
-        <v>95.8</v>
-      </c>
       <c r="O63" t="n" s="10">
+        <v>96.0</v>
+      </c>
+      <c r="P63" t="n" s="10">
+        <v>95.5</v>
+      </c>
+      <c r="Q63" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="R63" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="S63" t="n" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="T63" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="U63" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="V63" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="W63" t="n" s="10">
+        <v>94.6</v>
+      </c>
+      <c r="X63" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="Y63" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="Z63" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="AA63" t="n" s="10">
         <v>95.4</v>
       </c>
-      <c r="P63" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="Q63" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="R63" t="n" s="10">
-        <v>94.2</v>
-      </c>
-      <c r="S63" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="T63" t="n" s="10">
+      <c r="AB63" t="n" s="10">
+        <v>95.3</v>
+      </c>
+      <c r="AC63" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="AD63" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="AE63" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="AF63" t="n" s="10">
         <v>93.9</v>
       </c>
-      <c r="U63" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="V63" t="n" s="10">
-        <v>93.9</v>
-      </c>
-      <c r="W63" t="n" s="10">
-        <v>94.1</v>
-      </c>
-      <c r="X63" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="Y63" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="Z63" t="n" s="10">
-        <v>94.6</v>
-      </c>
-      <c r="AA63" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="AB63" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="AC63" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="AD63" t="n" s="10">
-        <v>94.2</v>
-      </c>
-      <c r="AE63" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="AF63" t="n" s="10">
-        <v>93.6</v>
-      </c>
       <c r="AG63" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="AH63" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="AI63" t="n" s="10">
         <v>92.6</v>
@@ -24879,13 +24879,13 @@
         <v>92.3</v>
       </c>
       <c r="AK63" t="n" s="10">
-        <v>92.2</v>
+        <v>92.0</v>
       </c>
       <c r="AL63" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="AM63" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="AN63" t="n" s="10">
         <v>91.5</v>
@@ -24897,7 +24897,7 @@
         <v>91.4</v>
       </c>
       <c r="AQ63" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="AR63" t="n" s="10">
         <v>91.4</v>
@@ -24975,7 +24975,7 @@
         <v>97.9</v>
       </c>
       <c r="BQ63" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="BR63" t="n" s="10">
         <v>99.8</v>
@@ -24987,7 +24987,7 @@
         <v>101.7</v>
       </c>
       <c r="BU63" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="BV63" t="n" s="10">
         <v>103.3</v>
@@ -25080,10 +25080,10 @@
         <v>86.1</v>
       </c>
       <c r="CZ63" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DA63" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DB63" t="n" s="10">
         <v>83.1</v>
@@ -25107,7 +25107,7 @@
         <v>80.1</v>
       </c>
       <c r="DI63" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="DJ63" t="n" s="10">
         <v>78.6</v>
@@ -25164,7 +25164,7 @@
         <v>81.6</v>
       </c>
       <c r="EB63" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="EC63" t="n" s="10">
         <v>82.6</v>
@@ -26401,10 +26401,10 @@
         <v>127.1</v>
       </c>
       <c r="G68" t="n" s="10">
-        <v>124.0</v>
+        <v>123.9</v>
       </c>
       <c r="H68" t="n" s="10">
-        <v>126.7</v>
+        <v>126.8</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>125.7</v>
@@ -26437,7 +26437,7 @@
         <v>124.7</v>
       </c>
       <c r="S68" t="n" s="10">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="T68" t="n" s="10">
         <v>124.4</v>
@@ -26503,7 +26503,7 @@
         <v>120.6</v>
       </c>
       <c r="AO68" t="n" s="10">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="AP68" t="n" s="10">
         <v>121.7</v>
@@ -26512,7 +26512,7 @@
         <v>120.5</v>
       </c>
       <c r="AR68" t="n" s="10">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="AS68" t="n" s="10">
         <v>119.8</v>
@@ -26533,7 +26533,7 @@
         <v>119.1</v>
       </c>
       <c r="AY68" t="n" s="10">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="AZ68" t="n" s="10">
         <v>122.0</v>
@@ -26542,7 +26542,7 @@
         <v>124.0</v>
       </c>
       <c r="BB68" t="n" s="10">
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="BC68" t="n" s="10">
         <v>120.0</v>
@@ -26620,10 +26620,10 @@
         <v>120.7</v>
       </c>
       <c r="CB68" t="n" s="10">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="CC68" t="n" s="10">
-        <v>119.5</v>
+        <v>119.4</v>
       </c>
       <c r="CD68" t="n" s="10">
         <v>118.5</v>
@@ -26647,7 +26647,7 @@
         <v>115.6</v>
       </c>
       <c r="CK68" t="n" s="10">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="CL68" t="n" s="10">
         <v>115.8</v>
@@ -26755,7 +26755,7 @@
         <v>107.3</v>
       </c>
       <c r="DU68" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="DV68" t="n" s="10">
         <v>106.9</v>
@@ -26782,7 +26782,7 @@
         <v>106.3</v>
       </c>
       <c r="ED68" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="69">
@@ -26793,7 +26793,7 @@
         <v>127.3</v>
       </c>
       <c r="D69" t="n" s="10">
-        <v>127.4</v>
+        <v>127.3</v>
       </c>
       <c r="E69" t="n" s="10">
         <v>127.4</v>
@@ -26841,7 +26841,7 @@
         <v>125.3</v>
       </c>
       <c r="T69" t="n" s="10">
-        <v>124.6</v>
+        <v>124.5</v>
       </c>
       <c r="U69" t="n" s="10">
         <v>123.8</v>
@@ -26871,7 +26871,7 @@
         <v>121.5</v>
       </c>
       <c r="AD69" t="n" s="10">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="AE69" t="n" s="10">
         <v>121.4</v>
@@ -27015,7 +27015,7 @@
         <v>119.4</v>
       </c>
       <c r="BZ69" t="n" s="10">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="CA69" t="n" s="10">
         <v>119.5</v>
@@ -28397,7 +28397,7 @@
         <v>35</v>
       </c>
       <c r="C73" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="D73" t="n" s="10">
         <v>108.7</v>
@@ -28484,7 +28484,7 @@
         <v>106.8</v>
       </c>
       <c r="AF73" t="n" s="10">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AG73" t="n" s="10">
         <v>108.1</v>
@@ -28592,7 +28592,7 @@
         <v>104.2</v>
       </c>
       <c r="BP73" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="BQ73" t="n" s="10">
         <v>105.7</v>
@@ -28691,7 +28691,7 @@
         <v>99.1</v>
       </c>
       <c r="CW73" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="CX73" t="n" s="10">
         <v>97.3</v>
@@ -28787,7 +28787,7 @@
         <v>97.7</v>
       </c>
       <c r="EC73" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="ED73" t="n" s="10">
         <v>96.3</v>
@@ -30416,16 +30416,16 @@
         <v>95.6</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>96.2</v>
@@ -30434,7 +30434,7 @@
         <v>97.4</v>
       </c>
       <c r="K79" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="L79" t="n" s="10">
         <v>99.6</v>
@@ -30443,19 +30443,19 @@
         <v>97.3</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="O79" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="Q79" t="n" s="10">
         <v>100.0</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>100.3</v>
@@ -30464,121 +30464,121 @@
         <v>98.2</v>
       </c>
       <c r="U79" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="W79" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="X79" t="n" s="10">
+        <v>97.8</v>
+      </c>
+      <c r="Y79" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="Z79" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="AA79" t="n" s="10">
         <v>97.9</v>
       </c>
-      <c r="Y79" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="Z79" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="AA79" t="n" s="10">
+      <c r="AB79" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="AC79" t="n" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="AD79" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="AE79" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="AF79" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="AG79" t="n" s="10">
         <v>98.0</v>
       </c>
-      <c r="AB79" t="n" s="10">
-        <v>99.9</v>
-      </c>
-      <c r="AC79" t="n" s="10">
-        <v>95.1</v>
-      </c>
-      <c r="AD79" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="AE79" t="n" s="10">
-        <v>96.6</v>
-      </c>
-      <c r="AF79" t="n" s="10">
-        <v>97.4</v>
-      </c>
-      <c r="AG79" t="n" s="10">
-        <v>98.2</v>
-      </c>
       <c r="AH79" t="n" s="10">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AI79" t="n" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="AJ79" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="AK79" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="AL79" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="AM79" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="AJ79" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="AK79" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="AL79" t="n" s="10">
-        <v>96.4</v>
-      </c>
-      <c r="AM79" t="n" s="10">
+      <c r="AN79" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="AO79" t="n" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="AP79" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="AQ79" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="AR79" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="AS79" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="AT79" t="n" s="10">
+        <v>91.0</v>
+      </c>
+      <c r="AU79" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="AV79" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="AW79" t="n" s="10">
+        <v>93.6</v>
+      </c>
+      <c r="AX79" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="AY79" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="AZ79" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="BA79" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="BB79" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="BC79" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="BD79" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="BE79" t="n" s="10">
         <v>97.6</v>
-      </c>
-      <c r="AN79" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="AO79" t="n" s="10">
-        <v>89.1</v>
-      </c>
-      <c r="AP79" t="n" s="10">
-        <v>99.9</v>
-      </c>
-      <c r="AQ79" t="n" s="10">
-        <v>96.2</v>
-      </c>
-      <c r="AR79" t="n" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="AS79" t="n" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="AT79" t="n" s="10">
-        <v>91.3</v>
-      </c>
-      <c r="AU79" t="n" s="10">
-        <v>96.1</v>
-      </c>
-      <c r="AV79" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="AW79" t="n" s="10">
-        <v>93.7</v>
-      </c>
-      <c r="AX79" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="AY79" t="n" s="10">
-        <v>94.1</v>
-      </c>
-      <c r="AZ79" t="n" s="10">
-        <v>92.4</v>
-      </c>
-      <c r="BA79" t="n" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="BB79" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="BC79" t="n" s="10">
-        <v>95.9</v>
-      </c>
-      <c r="BD79" t="n" s="10">
-        <v>96.6</v>
-      </c>
-      <c r="BE79" t="n" s="10">
-        <v>97.7</v>
       </c>
       <c r="BF79" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="BG79" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="BH79" t="n" s="10">
         <v>92.4</v>
@@ -30587,22 +30587,22 @@
         <v>95.2</v>
       </c>
       <c r="BJ79" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="BK79" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="BL79" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>102.1</v>
+        <v>101.6</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="BO79" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BP79" t="n" s="10">
         <v>87.2</v>
@@ -30611,19 +30611,19 @@
         <v>82.9</v>
       </c>
       <c r="BR79" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="BS79" t="n" s="10">
         <v>83.7</v>
       </c>
       <c r="BT79" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="BU79" t="n" s="10">
         <v>85.5</v>
       </c>
       <c r="BV79" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BW79" t="n" s="10">
         <v>81.0</v>
@@ -30632,19 +30632,19 @@
         <v>82.1</v>
       </c>
       <c r="BY79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.4</v>
       </c>
       <c r="BZ79" t="n" s="10">
         <v>85.3</v>
       </c>
       <c r="CA79" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CB79" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="CC79" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="CD79" t="n" s="10">
         <v>84.9</v>
@@ -30671,7 +30671,7 @@
         <v>88.6</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="CM79" t="n" s="10">
         <v>83.9</v>
@@ -30686,7 +30686,7 @@
         <v>84.1</v>
       </c>
       <c r="CQ79" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="CR79" t="n" s="10">
         <v>84.1</v>
@@ -30704,13 +30704,13 @@
         <v>85.0</v>
       </c>
       <c r="CW79" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="CY79" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="CZ79" t="n" s="10">
         <v>83.5</v>
@@ -30740,7 +30740,7 @@
         <v>80.1</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="DJ79" t="n" s="10">
         <v>82.6</v>
@@ -30749,22 +30749,22 @@
         <v>82.1</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="DM79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DN79" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="DO79" t="n" s="10">
         <v>80.5</v>
       </c>
       <c r="DP79" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DQ79" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="DR79" t="n" s="10">
         <v>79.7</v>
@@ -30776,7 +30776,7 @@
         <v>78.7</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>81.4</v>
+        <v>81.3</v>
       </c>
       <c r="DV79" t="n" s="10">
         <v>76.9</v>
@@ -30785,7 +30785,7 @@
         <v>74.7</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DY79" t="n" s="10">
         <v>77.4</v>
@@ -30803,7 +30803,7 @@
         <v>75.9</v>
       </c>
       <c r="ED79" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
     </row>
     <row r="80">
@@ -30829,7 +30829,7 @@
         <v>96.5</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="J80" t="n" s="10">
         <v>97.1</v>
@@ -30886,13 +30886,13 @@
         <v>97.9</v>
       </c>
       <c r="AB80" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC80" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="AD80" t="n" s="10">
         <v>97.5</v>
-      </c>
-      <c r="AD80" t="n" s="10">
-        <v>97.4</v>
       </c>
       <c r="AE80" t="n" s="10">
         <v>97.4</v>
@@ -30901,70 +30901,70 @@
         <v>97.3</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AH80" t="n" s="10">
-        <v>97.2</v>
+        <v>97.0</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>97.0</v>
+        <v>96.7</v>
       </c>
       <c r="AJ80" t="n" s="10">
-        <v>96.9</v>
+        <v>96.5</v>
       </c>
       <c r="AK80" t="n" s="10">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>96.8</v>
+        <v>96.1</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>96.7</v>
+        <v>96.0</v>
       </c>
       <c r="AN80" t="n" s="10">
-        <v>96.5</v>
+        <v>95.7</v>
       </c>
       <c r="AO80" t="n" s="10">
-        <v>96.4</v>
+        <v>95.5</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>96.2</v>
+        <v>95.4</v>
       </c>
       <c r="AQ80" t="n" s="10">
-        <v>95.9</v>
+        <v>95.2</v>
       </c>
       <c r="AR80" t="n" s="10">
-        <v>95.6</v>
+        <v>94.9</v>
       </c>
       <c r="AS80" t="n" s="10">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="AT80" t="n" s="10">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="AU80" t="n" s="10">
-        <v>95.1</v>
+        <v>94.8</v>
       </c>
       <c r="AV80" t="n" s="10">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="AW80" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="AX80" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="AY80" t="n" s="10">
         <v>94.8</v>
       </c>
-      <c r="AY80" t="n" s="10">
-        <v>94.7</v>
-      </c>
       <c r="AZ80" t="n" s="10">
-        <v>94.8</v>
+        <v>95.0</v>
       </c>
       <c r="BA80" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="BC80" t="n" s="10">
         <v>95.6</v>
@@ -30976,7 +30976,7 @@
         <v>96.0</v>
       </c>
       <c r="BF80" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="BG80" t="n" s="10">
         <v>95.5</v>
@@ -30988,22 +30988,22 @@
         <v>94.3</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="BK80" t="n" s="10">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="BM80" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BP80" t="n" s="10">
         <v>87.2</v>
@@ -31012,7 +31012,7 @@
         <v>86.2</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="BS80" t="n" s="10">
         <v>84.7</v>
@@ -31024,10 +31024,10 @@
         <v>83.7</v>
       </c>
       <c r="BV80" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BW80" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="BX80" t="n" s="10">
         <v>83.1</v>
@@ -31057,7 +31057,7 @@
         <v>83.9</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="CH80" t="n" s="10">
         <v>84.5</v>
@@ -31081,7 +31081,7 @@
         <v>85.1</v>
       </c>
       <c r="CO80" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="CP80" t="n" s="10">
         <v>84.9</v>
@@ -31090,7 +31090,7 @@
         <v>84.7</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="CS80" t="n" s="10">
         <v>84.4</v>
@@ -31123,13 +31123,13 @@
         <v>83.7</v>
       </c>
       <c r="DC80" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="DD80" t="n" s="10">
         <v>83.2</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>82.4</v>
@@ -31138,7 +31138,7 @@
         <v>82.0</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DI80" t="n" s="10">
         <v>81.0</v>
@@ -31168,7 +31168,7 @@
         <v>79.3</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="DS80" t="n" s="10">
         <v>78.7</v>
@@ -31189,7 +31189,7 @@
         <v>76.8</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
         <v>76.3</v>
@@ -31201,10 +31201,10 @@
         <v>76.0</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="ED80" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="81">
@@ -32430,7 +32430,7 @@
         <v>71.3</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="H84" t="n" s="10">
         <v>70.4</v>
@@ -32466,7 +32466,7 @@
         <v>72.0</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>73.2</v>
+        <v>73.1</v>
       </c>
       <c r="T84" t="n" s="10">
         <v>72.3</v>
@@ -32487,7 +32487,7 @@
         <v>71.9</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="AA84" t="n" s="10">
         <v>72.2</v>
@@ -32532,7 +32532,7 @@
         <v>74.1</v>
       </c>
       <c r="AO84" t="n" s="10">
-        <v>72.1</v>
+        <v>72.2</v>
       </c>
       <c r="AP84" t="n" s="10">
         <v>75.1</v>
@@ -32550,7 +32550,7 @@
         <v>71.2</v>
       </c>
       <c r="AU84" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="AV84" t="n" s="10">
         <v>74.8</v>
@@ -32571,7 +32571,7 @@
         <v>72.6</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="BC84" t="n" s="10">
         <v>71.9</v>
@@ -32595,7 +32595,7 @@
         <v>68.3</v>
       </c>
       <c r="BJ84" t="n" s="10">
-        <v>67.9</v>
+        <v>67.8</v>
       </c>
       <c r="BK84" t="n" s="10">
         <v>69.0</v>
@@ -32613,7 +32613,7 @@
         <v>67.1</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="BQ84" t="n" s="10">
         <v>67.0</v>
@@ -32622,7 +32622,7 @@
         <v>70.0</v>
       </c>
       <c r="BS84" t="n" s="10">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="BT84" t="n" s="10">
         <v>71.7</v>
@@ -32646,7 +32646,7 @@
         <v>73.8</v>
       </c>
       <c r="CA84" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="CB84" t="n" s="10">
         <v>73.0</v>
@@ -32754,7 +32754,7 @@
         <v>72.9</v>
       </c>
       <c r="DK84" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="DL84" t="n" s="10">
         <v>70.7</v>
@@ -32939,7 +32939,7 @@
         <v>74.3</v>
       </c>
       <c r="AQ85" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="AR85" t="n" s="10">
         <v>73.6</v>
@@ -33020,7 +33020,7 @@
         <v>69.0</v>
       </c>
       <c r="BR85" t="n" s="10">
-        <v>69.2</v>
+        <v>69.1</v>
       </c>
       <c r="BS85" t="n" s="10">
         <v>69.4</v>
@@ -33029,7 +33029,7 @@
         <v>69.7</v>
       </c>
       <c r="BU85" t="n" s="10">
-        <v>70.1</v>
+        <v>70.0</v>
       </c>
       <c r="BV85" t="n" s="10">
         <v>70.4</v>
@@ -33062,7 +33062,7 @@
         <v>76.0</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="CG85" t="n" s="10">
         <v>76.5</v>
@@ -33155,7 +33155,7 @@
         <v>71.6</v>
       </c>
       <c r="DK85" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="DL85" t="n" s="10">
         <v>70.7</v>
@@ -33206,7 +33206,7 @@
         <v>69.8</v>
       </c>
       <c r="EB85" t="n" s="10">
-        <v>70.0</v>
+        <v>69.9</v>
       </c>
       <c r="EC85" t="n" s="10">
         <v>70.2</v>
@@ -34566,7 +34566,7 @@
         <v>92.3</v>
       </c>
       <c r="AV90" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="AW90" t="n" s="10">
         <v>92.3</v>
@@ -34659,7 +34659,7 @@
         <v>93.4</v>
       </c>
       <c r="CA90" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CB90" t="n" s="10">
         <v>92.5</v>
@@ -35030,7 +35030,7 @@
         <v>93.0</v>
       </c>
       <c r="BQ91" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="BR91" t="n" s="10">
         <v>92.7</v>
@@ -35171,7 +35171,7 @@
         <v>92.7</v>
       </c>
       <c r="DL91" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="DM91" t="n" s="10">
         <v>92.7</v>
@@ -36526,7 +36526,7 @@
         <v>80.9</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>80.6</v>
@@ -36562,7 +36562,7 @@
         <v>81.6</v>
       </c>
       <c r="AR95" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AS95" t="n" s="10">
         <v>82.0</v>
@@ -36577,7 +36577,7 @@
         <v>82.3</v>
       </c>
       <c r="AW95" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AX95" t="n" s="10">
         <v>81.8</v>
@@ -36628,7 +36628,7 @@
         <v>83.5</v>
       </c>
       <c r="BN95" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="BO95" t="n" s="10">
         <v>82.2</v>
@@ -36658,19 +36658,19 @@
         <v>82.2</v>
       </c>
       <c r="BX95" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="BY95" t="n" s="10">
         <v>82.9</v>
       </c>
       <c r="BZ95" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="CA95" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="CB95" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="CC95" t="n" s="10">
         <v>83.7</v>
@@ -36769,7 +36769,7 @@
         <v>85.0</v>
       </c>
       <c r="DI95" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="DJ95" t="n" s="10">
         <v>85.4</v>
@@ -36781,7 +36781,7 @@
         <v>84.9</v>
       </c>
       <c r="DM95" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DN95" t="n" s="10">
         <v>85.0</v>
@@ -36814,7 +36814,7 @@
         <v>84.6</v>
       </c>
       <c r="DX95" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DY95" t="n" s="10">
         <v>86.1</v>
@@ -36829,7 +36829,7 @@
         <v>85.8</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="ED95" t="n" s="10">
         <v>85.8</v>
@@ -36945,7 +36945,7 @@
         <v>81.3</v>
       </c>
       <c r="AL96" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="AM96" t="n" s="10">
         <v>81.3</v>
@@ -36990,7 +36990,7 @@
         <v>82.3</v>
       </c>
       <c r="BA96" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="BB96" t="n" s="10">
         <v>82.4</v>
@@ -37047,7 +37047,7 @@
         <v>83.0</v>
       </c>
       <c r="BT96" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="BU96" t="n" s="10">
         <v>83.1</v>
@@ -37098,7 +37098,7 @@
         <v>85.0</v>
       </c>
       <c r="CK96" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CL96" t="n" s="10">
         <v>85.5</v>
@@ -38455,7 +38455,7 @@
         <v>94.7</v>
       </c>
       <c r="D101" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="E101" t="n" s="10">
         <v>101.2</v>
@@ -38467,7 +38467,7 @@
         <v>92.0</v>
       </c>
       <c r="H101" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="I101" t="n" s="10">
         <v>93.9</v>
@@ -38479,13 +38479,13 @@
         <v>93.3</v>
       </c>
       <c r="L101" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="M101" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="N101" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="O101" t="n" s="10">
         <v>94.3</v>
@@ -38500,7 +38500,7 @@
         <v>97.2</v>
       </c>
       <c r="S101" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="T101" t="n" s="10">
         <v>98.7</v>
@@ -38521,7 +38521,7 @@
         <v>96.3</v>
       </c>
       <c r="Z101" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="AA101" t="n" s="10">
         <v>96.3</v>
@@ -38566,16 +38566,16 @@
         <v>93.0</v>
       </c>
       <c r="AO101" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="AP101" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="AQ101" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="AR101" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="AS101" t="n" s="10">
         <v>92.9</v>
@@ -38647,13 +38647,13 @@
         <v>92.6</v>
       </c>
       <c r="BP101" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="BQ101" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="BR101" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="BS101" t="n" s="10">
         <v>95.1</v>
@@ -38674,7 +38674,7 @@
         <v>97.8</v>
       </c>
       <c r="BY101" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="BZ101" t="n" s="10">
         <v>97.7</v>
@@ -38683,10 +38683,10 @@
         <v>98.9</v>
       </c>
       <c r="CB101" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="CC101" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="CD101" t="n" s="10">
         <v>97.4</v>
@@ -38797,7 +38797,7 @@
         <v>100.7</v>
       </c>
       <c r="DN101" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="DO101" t="n" s="10">
         <v>101.9</v>
@@ -38809,7 +38809,7 @@
         <v>100.9</v>
       </c>
       <c r="DR101" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="DS101" t="n" s="10">
         <v>104.2</v>
@@ -39198,7 +39198,7 @@
         <v>101.2</v>
       </c>
       <c r="DN102" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="DO102" t="n" s="10">
         <v>101.7</v>
@@ -39237,7 +39237,7 @@
         <v>104.0</v>
       </c>
       <c r="EA102" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="EB102" t="n" s="10">
         <v>104.5</v>
@@ -40460,7 +40460,7 @@
         <v>35</v>
       </c>
       <c r="C106" t="n" s="10">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="D106" t="n" s="10">
         <v>71.7</v>
@@ -40475,7 +40475,7 @@
         <v>70.1</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="I106" t="n" s="10">
         <v>71.7</v>
@@ -40484,16 +40484,16 @@
         <v>70.1</v>
       </c>
       <c r="K106" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="L106" t="n" s="10">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>71.9</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="O106" t="n" s="10">
         <v>72.4</v>
@@ -40505,10 +40505,10 @@
         <v>73.4</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="S106" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="T106" t="n" s="10">
         <v>75.8</v>
@@ -40538,7 +40538,7 @@
         <v>75.7</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>74.4</v>
@@ -40547,16 +40547,16 @@
         <v>73.8</v>
       </c>
       <c r="AF106" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="AG106" t="n" s="10">
-        <v>74.0</v>
+        <v>74.1</v>
       </c>
       <c r="AH106" t="n" s="10">
         <v>74.7</v>
       </c>
       <c r="AI106" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="AJ106" t="n" s="10">
         <v>74.5</v>
@@ -40568,19 +40568,19 @@
         <v>73.2</v>
       </c>
       <c r="AM106" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="AN106" t="n" s="10">
         <v>72.2</v>
       </c>
       <c r="AO106" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="AP106" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="AQ106" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="AR106" t="n" s="10">
         <v>72.8</v>
@@ -40598,7 +40598,7 @@
         <v>73.8</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="AX106" t="n" s="10">
         <v>72.9</v>
@@ -40613,16 +40613,16 @@
         <v>71.3</v>
       </c>
       <c r="BB106" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BC106" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BE106" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BF106" t="n" s="10">
         <v>73.9</v>
@@ -40652,19 +40652,19 @@
         <v>73.2</v>
       </c>
       <c r="BO106" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="BP106" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BQ106" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="BR106" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BS106" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BT106" t="n" s="10">
         <v>74.6</v>
@@ -40673,31 +40673,31 @@
         <v>74.8</v>
       </c>
       <c r="BV106" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BW106" t="n" s="10">
         <v>74.4</v>
       </c>
       <c r="BX106" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="BY106" t="n" s="10">
         <v>75.1</v>
       </c>
       <c r="BZ106" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="CA106" t="n" s="10">
-        <v>76.7</v>
+        <v>76.9</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>74.5</v>
       </c>
       <c r="CD106" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="CE106" t="n" s="10">
         <v>77.1</v>
@@ -40709,7 +40709,7 @@
         <v>76.3</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>77.9</v>
@@ -40718,10 +40718,10 @@
         <v>76.9</v>
       </c>
       <c r="CK106" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="CL106" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="CM106" t="n" s="10">
         <v>79.2</v>
@@ -40730,22 +40730,22 @@
         <v>80.5</v>
       </c>
       <c r="CO106" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="CP106" t="n" s="10">
         <v>80.1</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="CS106" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="CT106" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="CU106" t="n" s="10">
         <v>80.3</v>
@@ -40754,13 +40754,13 @@
         <v>80.9</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="CX106" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="CY106" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="CZ106" t="n" s="10">
         <v>80.7</v>
@@ -40784,7 +40784,7 @@
         <v>81.5</v>
       </c>
       <c r="DG106" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DH106" t="n" s="10">
         <v>81.6</v>
@@ -40793,31 +40793,31 @@
         <v>80.0</v>
       </c>
       <c r="DJ106" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="DK106" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="DL106" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="DM106" t="n" s="10">
         <v>82.5</v>
       </c>
       <c r="DN106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DO106" t="n" s="10">
         <v>83.7</v>
       </c>
       <c r="DP106" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="DQ106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DR106" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="DS106" t="n" s="10">
         <v>85.5</v>
@@ -40826,13 +40826,13 @@
         <v>84.5</v>
       </c>
       <c r="DU106" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DX106" t="n" s="10">
         <v>85.1</v>
@@ -40853,7 +40853,7 @@
         <v>86.7</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="107">
@@ -40909,7 +40909,7 @@
         <v>73.9</v>
       </c>
       <c r="S107" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="T107" t="n" s="10">
         <v>74.4</v>
@@ -40918,10 +40918,10 @@
         <v>74.5</v>
       </c>
       <c r="V107" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="W107" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="X107" t="n" s="10">
         <v>74.6</v>
@@ -40969,10 +40969,10 @@
         <v>73.5</v>
       </c>
       <c r="AM107" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="AN107" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="AO107" t="n" s="10">
         <v>73.1</v>
@@ -41044,7 +41044,7 @@
         <v>74.4</v>
       </c>
       <c r="BL107" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="BM107" t="n" s="10">
         <v>74.3</v>
@@ -41059,7 +41059,7 @@
         <v>74.2</v>
       </c>
       <c r="BQ107" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="BR107" t="n" s="10">
         <v>74.3</v>
@@ -41071,16 +41071,16 @@
         <v>74.6</v>
       </c>
       <c r="BU107" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="BV107" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="BW107" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="BX107" t="n" s="10">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="BY107" t="n" s="10">
         <v>75.5</v>
@@ -41092,7 +41092,7 @@
         <v>75.7</v>
       </c>
       <c r="CB107" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="CC107" t="n" s="10">
         <v>75.8</v>
@@ -41140,10 +41140,10 @@
         <v>80.1</v>
       </c>
       <c r="CR107" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="CS107" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="CT107" t="n" s="10">
         <v>80.6</v>
@@ -41161,7 +41161,7 @@
         <v>81.1</v>
       </c>
       <c r="CY107" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="CZ107" t="n" s="10">
         <v>81.3</v>
@@ -41191,13 +41191,13 @@
         <v>81.8</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="DJ107" t="n" s="10">
         <v>82.1</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="DL107" t="n" s="10">
         <v>82.5</v>
@@ -41215,13 +41215,13 @@
         <v>83.7</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DR107" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DT107" t="n" s="10">
         <v>84.6</v>
@@ -42476,7 +42476,7 @@
         <v>106.4</v>
       </c>
       <c r="D112" t="n" s="10">
-        <v>106.9</v>
+        <v>107.0</v>
       </c>
       <c r="E112" t="n" s="10">
         <v>114.2</v>
@@ -42503,7 +42503,7 @@
         <v>112.2</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="N112" t="n" s="10">
         <v>109.4</v>
@@ -42527,7 +42527,7 @@
         <v>107.9</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="V112" t="n" s="10">
         <v>107.7</v>
@@ -42539,7 +42539,7 @@
         <v>103.7</v>
       </c>
       <c r="Y112" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="Z112" t="n" s="10">
         <v>106.8</v>
@@ -42560,7 +42560,7 @@
         <v>101.4</v>
       </c>
       <c r="AF112" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AG112" t="n" s="10">
         <v>105.2</v>
@@ -42578,7 +42578,7 @@
         <v>107.7</v>
       </c>
       <c r="AL112" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AM112" t="n" s="10">
         <v>105.2</v>
@@ -42593,10 +42593,10 @@
         <v>102.2</v>
       </c>
       <c r="AQ112" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AS112" t="n" s="10">
         <v>104.0</v>
@@ -42611,7 +42611,7 @@
         <v>106.4</v>
       </c>
       <c r="AW112" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AX112" t="n" s="10">
         <v>104.4</v>
@@ -42632,7 +42632,7 @@
         <v>103.5</v>
       </c>
       <c r="BD112" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="BE112" t="n" s="10">
         <v>101.5</v>
@@ -42695,7 +42695,7 @@
         <v>106.6</v>
       </c>
       <c r="BY112" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="BZ112" t="n" s="10">
         <v>105.5</v>
@@ -42710,7 +42710,7 @@
         <v>99.8</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="CE112" t="n" s="10">
         <v>102.9</v>
@@ -42722,7 +42722,7 @@
         <v>100.1</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>103.6</v>
@@ -42773,7 +42773,7 @@
         <v>94.2</v>
       </c>
       <c r="CY112" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="CZ112" t="n" s="10">
         <v>94.4</v>
@@ -42803,7 +42803,7 @@
         <v>90.9</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="DJ112" t="n" s="10">
         <v>90.5</v>
@@ -42830,7 +42830,7 @@
         <v>87.3</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="DS112" t="n" s="10">
         <v>92.4</v>
@@ -42839,7 +42839,7 @@
         <v>93.5</v>
       </c>
       <c r="DU112" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="DV112" t="n" s="10">
         <v>93.3</v>
@@ -42860,7 +42860,7 @@
         <v>94.1</v>
       </c>
       <c r="EB112" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="EC112" t="n" s="10">
         <v>95.7</v>
@@ -42874,7 +42874,7 @@
         <v>36</v>
       </c>
       <c r="C113" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="D113" t="n" s="10">
         <v>107.8</v>
@@ -42892,7 +42892,7 @@
         <v>107.5</v>
       </c>
       <c r="I113" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="J113" t="n" s="10">
         <v>107.4</v>
@@ -43057,7 +43057,7 @@
         <v>101.9</v>
       </c>
       <c r="BL113" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="BM113" t="n" s="10">
         <v>102.0</v>
@@ -43093,7 +43093,7 @@
         <v>101.7</v>
       </c>
       <c r="BX113" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="BY113" t="n" s="10">
         <v>101.9</v>
@@ -43162,7 +43162,7 @@
         <v>97.5</v>
       </c>
       <c r="CU113" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="CV113" t="n" s="10">
         <v>96.5</v>
@@ -43183,7 +43183,7 @@
         <v>94.4</v>
       </c>
       <c r="DB113" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DC113" t="n" s="10">
         <v>93.6</v>
@@ -43264,10 +43264,10 @@
         <v>94.0</v>
       </c>
       <c r="EC113" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="ED113" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="114">
@@ -44547,7 +44547,7 @@
         <v>95.8</v>
       </c>
       <c r="Y117" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="Z117" t="n" s="10">
         <v>98.8</v>
@@ -44574,7 +44574,7 @@
         <v>97.6</v>
       </c>
       <c r="AH117" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AI117" t="n" s="10">
         <v>100.7</v>
@@ -44682,7 +44682,7 @@
         <v>97.5</v>
       </c>
       <c r="BR117" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="BS117" t="n" s="10">
         <v>88.5</v>
@@ -44712,7 +44712,7 @@
         <v>96.3</v>
       </c>
       <c r="CB117" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="CC117" t="n" s="10">
         <v>93.3</v>
@@ -44805,7 +44805,7 @@
         <v>88.8</v>
       </c>
       <c r="DG117" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DH117" t="n" s="10">
         <v>86.4</v>
@@ -44826,7 +44826,7 @@
         <v>84.6</v>
       </c>
       <c r="DN117" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DO117" t="n" s="10">
         <v>85.5</v>
@@ -44838,7 +44838,7 @@
         <v>82.6</v>
       </c>
       <c r="DR117" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DS117" t="n" s="10">
         <v>87.6</v>
@@ -44882,7 +44882,7 @@
         <v>36</v>
       </c>
       <c r="C118" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="D118" t="n" s="10">
         <v>98.7</v>
@@ -46494,7 +46494,7 @@
         <v>35</v>
       </c>
       <c r="C123" t="n" s="10">
-        <v>127.6</v>
+        <v>127.5</v>
       </c>
       <c r="D123" t="n" s="10">
         <v>125.3</v>
@@ -46506,7 +46506,7 @@
         <v>126.4</v>
       </c>
       <c r="G123" t="n" s="10">
-        <v>123.4</v>
+        <v>123.3</v>
       </c>
       <c r="H123" t="n" s="10">
         <v>126.1</v>
@@ -46584,7 +46584,7 @@
         <v>121.0</v>
       </c>
       <c r="AG123" t="n" s="10">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="AH123" t="n" s="10">
         <v>122.1</v>
@@ -46611,7 +46611,7 @@
         <v>116.3</v>
       </c>
       <c r="AP123" t="n" s="10">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="AQ123" t="n" s="10">
         <v>119.6</v>
@@ -46653,7 +46653,7 @@
         <v>119.1</v>
       </c>
       <c r="BD123" t="n" s="10">
-        <v>118.9</v>
+        <v>118.8</v>
       </c>
       <c r="BE123" t="n" s="10">
         <v>119.0</v>
@@ -46689,7 +46689,7 @@
         <v>115.6</v>
       </c>
       <c r="BP123" t="n" s="10">
-        <v>117.7</v>
+        <v>117.8</v>
       </c>
       <c r="BQ123" t="n" s="10">
         <v>117.2</v>
@@ -46698,7 +46698,7 @@
         <v>116.7</v>
       </c>
       <c r="BS123" t="n" s="10">
-        <v>116.0</v>
+        <v>116.1</v>
       </c>
       <c r="BT123" t="n" s="10">
         <v>117.6</v>
@@ -46719,10 +46719,10 @@
         <v>117.7</v>
       </c>
       <c r="BZ123" t="n" s="10">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="CA123" t="n" s="10">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="CB123" t="n" s="10">
         <v>116.9</v>
@@ -46743,16 +46743,16 @@
         <v>117.4</v>
       </c>
       <c r="CH123" t="n" s="10">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="CI123" t="n" s="10">
         <v>117.8</v>
       </c>
       <c r="CJ123" t="n" s="10">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="CK123" t="n" s="10">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="CL123" t="n" s="10">
         <v>115.0</v>
@@ -46761,7 +46761,7 @@
         <v>115.0</v>
       </c>
       <c r="CN123" t="n" s="10">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="CO123" t="n" s="10">
         <v>112.3</v>
@@ -46824,7 +46824,7 @@
         <v>103.8</v>
       </c>
       <c r="DI123" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="DJ123" t="n" s="10">
         <v>104.6</v>
@@ -46833,7 +46833,7 @@
         <v>104.4</v>
       </c>
       <c r="DL123" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="DM123" t="n" s="10">
         <v>102.3</v>
@@ -46991,7 +46991,7 @@
         <v>120.6</v>
       </c>
       <c r="AI124" t="n" s="10">
-        <v>120.5</v>
+        <v>120.4</v>
       </c>
       <c r="AJ124" t="n" s="10">
         <v>120.4</v>
@@ -47006,7 +47006,7 @@
         <v>119.9</v>
       </c>
       <c r="AN124" t="n" s="10">
-        <v>119.5</v>
+        <v>119.4</v>
       </c>
       <c r="AO124" t="n" s="10">
         <v>119.1</v>
@@ -48532,7 +48532,7 @@
         <v>111.8</v>
       </c>
       <c r="M128" t="n" s="10">
-        <v>112.7</v>
+        <v>112.6</v>
       </c>
       <c r="N128" t="n" s="10">
         <v>116.8</v>
@@ -48577,7 +48577,7 @@
         <v>107.2</v>
       </c>
       <c r="AB128" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC128" t="n" s="10">
         <v>106.5</v>
@@ -48598,7 +48598,7 @@
         <v>108.2</v>
       </c>
       <c r="AI128" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AJ128" t="n" s="10">
         <v>106.8</v>
@@ -48631,13 +48631,13 @@
         <v>105.5</v>
       </c>
       <c r="AT128" t="n" s="10">
-        <v>104.1</v>
+        <v>104.0</v>
       </c>
       <c r="AU128" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="AV128" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AW128" t="n" s="10">
         <v>105.0</v>
@@ -48721,7 +48721,7 @@
         <v>105.0</v>
       </c>
       <c r="BX128" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="BY128" t="n" s="10">
         <v>106.0</v>
@@ -48892,7 +48892,7 @@
         <v>97.5</v>
       </c>
       <c r="EC128" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="ED128" t="n" s="10">
         <v>96.1</v>
@@ -49296,7 +49296,7 @@
         <v>96.8</v>
       </c>
       <c r="ED129" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
     </row>
     <row r="130" ht="33.75" customHeight="true">
@@ -50515,7 +50515,7 @@
         <v>35</v>
       </c>
       <c r="C134" t="n" s="10">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D134" t="n" s="10">
         <v>49.7</v>
@@ -50545,7 +50545,7 @@
         <v>53.3</v>
       </c>
       <c r="M134" t="n" s="10">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="N134" t="n" s="10">
         <v>51.7</v>
@@ -50563,7 +50563,7 @@
         <v>54.8</v>
       </c>
       <c r="S134" t="n" s="10">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="T134" t="n" s="10">
         <v>54.2</v>
@@ -50605,7 +50605,7 @@
         <v>55.8</v>
       </c>
       <c r="AG134" t="n" s="10">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="AH134" t="n" s="10">
         <v>57.8</v>
@@ -50620,7 +50620,7 @@
         <v>56.3</v>
       </c>
       <c r="AL134" t="n" s="10">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="AM134" t="n" s="10">
         <v>56.6</v>
@@ -50629,7 +50629,7 @@
         <v>57.1</v>
       </c>
       <c r="AO134" t="n" s="10">
-        <v>57.5</v>
+        <v>57.4</v>
       </c>
       <c r="AP134" t="n" s="10">
         <v>56.9</v>
@@ -50677,7 +50677,7 @@
         <v>58.8</v>
       </c>
       <c r="BE134" t="n" s="10">
-        <v>61.7</v>
+        <v>61.8</v>
       </c>
       <c r="BF134" t="n" s="10">
         <v>61.7</v>
@@ -50728,7 +50728,7 @@
         <v>65.7</v>
       </c>
       <c r="BV134" t="n" s="10">
-        <v>64.4</v>
+        <v>64.5</v>
       </c>
       <c r="BW134" t="n" s="10">
         <v>66.0</v>
@@ -50746,7 +50746,7 @@
         <v>68.6</v>
       </c>
       <c r="CB134" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="CC134" t="n" s="10">
         <v>68.6</v>
@@ -50767,7 +50767,7 @@
         <v>70.8</v>
       </c>
       <c r="CI134" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="CJ134" t="n" s="10">
         <v>71.0</v>
@@ -50806,7 +50806,7 @@
         <v>74.1</v>
       </c>
       <c r="CV134" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="CW134" t="n" s="10">
         <v>75.9</v>
@@ -50824,7 +50824,7 @@
         <v>75.2</v>
       </c>
       <c r="DB134" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DC134" t="n" s="10">
         <v>75.9</v>
@@ -50836,10 +50836,10 @@
         <v>75.8</v>
       </c>
       <c r="DF134" t="n" s="10">
-        <v>76.1</v>
+        <v>75.8</v>
       </c>
       <c r="DG134" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DH134" t="n" s="10">
         <v>77.5</v>
@@ -50851,64 +50851,64 @@
         <v>77.6</v>
       </c>
       <c r="DK134" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="DL134" t="n" s="10">
         <v>77.4</v>
       </c>
       <c r="DM134" t="n" s="10">
+        <v>77.5</v>
+      </c>
+      <c r="DN134" t="n" s="10">
         <v>77.4</v>
       </c>
-      <c r="DN134" t="n" s="10">
-        <v>77.3</v>
-      </c>
       <c r="DO134" t="n" s="10">
+        <v>77.7</v>
+      </c>
+      <c r="DP134" t="n" s="10">
+        <v>78.1</v>
+      </c>
+      <c r="DQ134" t="n" s="10">
+        <v>78.3</v>
+      </c>
+      <c r="DR134" t="n" s="10">
+        <v>82.1</v>
+      </c>
+      <c r="DS134" t="n" s="10">
+        <v>73.4</v>
+      </c>
+      <c r="DT134" t="n" s="10">
+        <v>76.0</v>
+      </c>
+      <c r="DU134" t="n" s="10">
         <v>77.5</v>
       </c>
-      <c r="DP134" t="n" s="10">
+      <c r="DV134" t="n" s="10">
         <v>77.9</v>
       </c>
-      <c r="DQ134" t="n" s="10">
-        <v>78.2</v>
-      </c>
-      <c r="DR134" t="n" s="10">
-        <v>83.4</v>
-      </c>
-      <c r="DS134" t="n" s="10">
-        <v>73.2</v>
-      </c>
-      <c r="DT134" t="n" s="10">
-        <v>75.8</v>
-      </c>
-      <c r="DU134" t="n" s="10">
-        <v>77.4</v>
-      </c>
-      <c r="DV134" t="n" s="10">
-        <v>77.8</v>
-      </c>
       <c r="DW134" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="DX134" t="n" s="10">
+        <v>79.2</v>
+      </c>
+      <c r="DY134" t="n" s="10">
         <v>79.0</v>
       </c>
-      <c r="DY134" t="n" s="10">
-        <v>78.9</v>
-      </c>
       <c r="DZ134" t="n" s="10">
-        <v>78.6</v>
+        <v>78.8</v>
       </c>
       <c r="EA134" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="EB134" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="EC134" t="n" s="10">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="ED134" t="n" s="10">
-        <v>82.3</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="135">
@@ -51141,7 +51141,7 @@
         <v>67.1</v>
       </c>
       <c r="BZ135" t="n" s="10">
-        <v>67.5</v>
+        <v>67.6</v>
       </c>
       <c r="CA135" t="n" s="10">
         <v>68.0</v>
@@ -51255,61 +51255,61 @@
         <v>77.3</v>
       </c>
       <c r="DL135" t="n" s="10">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="DM135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DN135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DO135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DP135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DQ135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DR135" t="n" s="10">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="DS135" t="n" s="10">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="DT135" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DU135" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="DV135" t="n" s="10">
-        <v>77.6</v>
+        <v>77.8</v>
       </c>
       <c r="DW135" t="n" s="10">
-        <v>77.8</v>
+        <v>78.0</v>
       </c>
       <c r="DX135" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="DY135" t="n" s="10">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="DZ135" t="n" s="10">
-        <v>78.7</v>
+        <v>78.9</v>
       </c>
       <c r="EA135" t="n" s="10">
-        <v>79.0</v>
+        <v>79.2</v>
       </c>
       <c r="EB135" t="n" s="10">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="EC135" t="n" s="10">
-        <v>79.8</v>
+        <v>80.0</v>
       </c>
       <c r="ED135" t="n" s="10">
-        <v>80.1</v>
+        <v>80.4</v>
       </c>
     </row>
     <row r="136">
@@ -52535,10 +52535,10 @@
         <v>45.4</v>
       </c>
       <c r="G139" t="n" s="10">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="H139" t="n" s="10">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="I139" t="n" s="10">
         <v>48.6</v>
@@ -52556,16 +52556,16 @@
         <v>50.0</v>
       </c>
       <c r="N139" t="n" s="10">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="O139" t="n" s="10">
         <v>48.5</v>
       </c>
       <c r="P139" t="n" s="10">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="Q139" t="n" s="10">
-        <v>49.9</v>
+        <v>50.0</v>
       </c>
       <c r="R139" t="n" s="10">
         <v>51.5</v>
@@ -52598,7 +52598,7 @@
         <v>53.2</v>
       </c>
       <c r="AB139" t="n" s="10">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="AC139" t="n" s="10">
         <v>52.8</v>
@@ -52610,7 +52610,7 @@
         <v>52.6</v>
       </c>
       <c r="AF139" t="n" s="10">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="AG139" t="n" s="10">
         <v>53.1</v>
@@ -52619,7 +52619,7 @@
         <v>54.2</v>
       </c>
       <c r="AI139" t="n" s="10">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="AJ139" t="n" s="10">
         <v>53.4</v>
@@ -52634,7 +52634,7 @@
         <v>53.1</v>
       </c>
       <c r="AN139" t="n" s="10">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="AO139" t="n" s="10">
         <v>54.0</v>
@@ -52646,7 +52646,7 @@
         <v>54.9</v>
       </c>
       <c r="AR139" t="n" s="10">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="AS139" t="n" s="10">
         <v>53.0</v>
@@ -52679,7 +52679,7 @@
         <v>56.1</v>
       </c>
       <c r="BC139" t="n" s="10">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="BD139" t="n" s="10">
         <v>55.4</v>
@@ -52706,7 +52706,7 @@
         <v>60.3</v>
       </c>
       <c r="BL139" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="BM139" t="n" s="10">
         <v>61.1</v>
@@ -52715,10 +52715,10 @@
         <v>59.8</v>
       </c>
       <c r="BO139" t="n" s="10">
-        <v>60.1</v>
+        <v>60.0</v>
       </c>
       <c r="BP139" t="n" s="10">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="BQ139" t="n" s="10">
         <v>61.2</v>
@@ -52733,10 +52733,10 @@
         <v>61.3</v>
       </c>
       <c r="BU139" t="n" s="10">
-        <v>61.2</v>
+        <v>61.3</v>
       </c>
       <c r="BV139" t="n" s="10">
-        <v>59.9</v>
+        <v>60.0</v>
       </c>
       <c r="BW139" t="n" s="10">
         <v>61.6</v>
@@ -52748,16 +52748,16 @@
         <v>61.5</v>
       </c>
       <c r="BZ139" t="n" s="10">
-        <v>63.7</v>
+        <v>63.6</v>
       </c>
       <c r="CA139" t="n" s="10">
-        <v>63.9</v>
+        <v>64.0</v>
       </c>
       <c r="CB139" t="n" s="10">
         <v>64.1</v>
       </c>
       <c r="CC139" t="n" s="10">
-        <v>64.1</v>
+        <v>64.0</v>
       </c>
       <c r="CD139" t="n" s="10">
         <v>64.6</v>
@@ -52787,10 +52787,10 @@
         <v>67.2</v>
       </c>
       <c r="CM139" t="n" s="10">
-        <v>67.4</v>
+        <v>67.5</v>
       </c>
       <c r="CN139" t="n" s="10">
-        <v>68.9</v>
+        <v>68.8</v>
       </c>
       <c r="CO139" t="n" s="10">
         <v>68.4</v>
@@ -52820,7 +52820,7 @@
         <v>71.1</v>
       </c>
       <c r="CX139" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="CY139" t="n" s="10">
         <v>70.8</v>
@@ -52862,7 +52862,7 @@
         <v>71.5</v>
       </c>
       <c r="DL139" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="DM139" t="n" s="10">
         <v>71.6</v>
@@ -52874,13 +52874,13 @@
         <v>71.7</v>
       </c>
       <c r="DP139" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="DQ139" t="n" s="10">
         <v>72.3</v>
       </c>
       <c r="DR139" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="DS139" t="n" s="10">
         <v>67.5</v>
@@ -52889,7 +52889,7 @@
         <v>69.9</v>
       </c>
       <c r="DU139" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="DV139" t="n" s="10">
         <v>71.4</v>
@@ -52916,7 +52916,7 @@
         <v>72.6</v>
       </c>
       <c r="ED139" t="n" s="10">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
     </row>
     <row r="140">
@@ -52924,7 +52924,7 @@
         <v>36</v>
       </c>
       <c r="C140" t="n" s="10">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="D140" t="n" s="10">
         <v>45.9</v>
@@ -52945,7 +52945,7 @@
         <v>47.7</v>
       </c>
       <c r="J140" t="n" s="10">
-        <v>48.0</v>
+        <v>48.1</v>
       </c>
       <c r="K140" t="n" s="10">
         <v>48.4</v>
@@ -53029,13 +53029,13 @@
         <v>53.3</v>
       </c>
       <c r="AL140" t="n" s="10">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="AM140" t="n" s="10">
         <v>53.4</v>
       </c>
       <c r="AN140" t="n" s="10">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="AO140" t="n" s="10">
         <v>53.7</v>
@@ -53044,7 +53044,7 @@
         <v>53.8</v>
       </c>
       <c r="AQ140" t="n" s="10">
-        <v>54.0</v>
+        <v>53.9</v>
       </c>
       <c r="AR140" t="n" s="10">
         <v>54.1</v>
@@ -53080,7 +53080,7 @@
         <v>55.7</v>
       </c>
       <c r="BC140" t="n" s="10">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="BD140" t="n" s="10">
         <v>56.6</v>
@@ -53200,7 +53200,7 @@
         <v>68.6</v>
       </c>
       <c r="CQ140" t="n" s="10">
-        <v>68.9</v>
+        <v>68.8</v>
       </c>
       <c r="CR140" t="n" s="10">
         <v>69.1</v>
@@ -53239,7 +53239,7 @@
         <v>70.5</v>
       </c>
       <c r="DD140" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="DE140" t="n" s="10">
         <v>70.6</v>
@@ -53269,7 +53269,7 @@
         <v>71.6</v>
       </c>
       <c r="DN140" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="DO140" t="n" s="10">
         <v>71.5</v>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:40:59&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:19:20&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 1994.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Turnover in retail trade - 1994.xlsx
@@ -190,7 +190,7 @@
     <t>a break in the time series.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:18:51</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:31:42</t>
   </si>
 </sst>
 </file>
@@ -53410,7 +53410,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:19:20&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:31:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>